--- a/va_facility_data_2025-02-20/Clarion County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clarion%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Clarion County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Clarion%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc42328d2aa584e19a171d85a015d1025"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7082423405c04c899f6de87475803af0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7ad6573e5f7f4b5a9a3123a26f94da04"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1a55d666e281476d8f7cd09c03eb663f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R888c50a3036b4f718847e4c56ab19726"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4aa77ce8f3424f6b94165ffe60800c49"/>
   </x:sheets>
 </x:workbook>
 </file>
